--- a/currentbuild/StructureDefinition-lmdi-substance.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-substance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-substance.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-substance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="307">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-09</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: Ontological RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -255,7 +264,13 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>fhir:Substance rdfs:subClassOf   rim:Entity, [      a owl:Restriction;     owl:onProperty  rim:Act.classCode;     owl:allValuesFrom  cs:EntityClass\#MAT   ].</t>
   </si>
   <si>
     <t>Substance.id</t>
@@ -299,10 +314,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -348,7 +359,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -377,6 +388,9 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
     <t>Substance.contained</t>
   </si>
   <si>
@@ -400,6 +414,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Substance.extension</t>
   </si>
   <si>
@@ -420,6 +437,155 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Substance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Substance.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique identifier</t>
+  </si>
+  <si>
+    <t>Unique identifier for the substance.</t>
+  </si>
+  <si>
+    <t>This identifier is associated with the kind of substance in contrast to the  Substance.instance.identifier which is associated with the package/container.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Substance.status</t>
+  </si>
+  <si>
+    <t>active | inactive | entered-in-error</t>
+  </si>
+  <si>
+    <t>A code to indicate if the substance is actively used.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/substance-status|4.0.1</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Substance.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>What class/type of substance this is</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of substance.  This is used  for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Substance.code.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Category or classification of substance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/substance-category|4.0.1</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Substance.code</t>
+  </si>
+  <si>
+    <t>What substance this is</t>
+  </si>
+  <si>
+    <t>A code (or set of codes) that identify this substance.</t>
+  </si>
+  <si>
+    <t>This could be a reference to an externally defined code.  It could also be a locally assigned code (e.g. a formulary),  optionally with translations to the standard drug codes.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Substance codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/substance-code|4.0.1</t>
+  </si>
+  <si>
+    <t>fhir:Substance.code rdfs:subPropertyOf rim:Entity.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Substance.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Substance.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -430,131 +596,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Substance.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Substance.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Unique identifier</t>
-  </si>
-  <si>
-    <t>Unique identifier for the substance.</t>
-  </si>
-  <si>
-    <t>This identifier is associated with the kind of substance in contrast to the  Substance.instance.identifier which is associated with the package/container.</t>
-  </si>
-  <si>
-    <t>Substance.status</t>
-  </si>
-  <si>
-    <t>active | inactive | entered-in-error</t>
-  </si>
-  <si>
-    <t>A code to indicate if the substance is actively used.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Substance.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>What class/type of substance this is</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of substance.  This is used  for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Substance.code.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Category or classification of substance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-category</t>
-  </si>
-  <si>
-    <t>Substance.code</t>
-  </si>
-  <si>
-    <t>What substance this is</t>
-  </si>
-  <si>
-    <t>A code (or set of codes) that identify this substance.</t>
-  </si>
-  <si>
-    <t>This could be a reference to an externally defined code.  It could also be a locally assigned code (e.g. a formulary),  optionally with translations to the standard drug codes.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Substance codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-code</t>
-  </si>
-  <si>
-    <t>Substance.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Substance.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -587,6 +628,12 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>fhir:CodeableConcept.coding rdfs:subPropertyOf dt:CD.coding</t>
+  </si>
+  <si>
     <t>Substance.code.coding:FEST-Substance</t>
   </si>
   <si>
@@ -635,6 +682,12 @@
     <t>Coding.system</t>
   </si>
   <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>fhir:Coding.system rdfs:subPropertyOf dt:CDCoding.codeSystem</t>
+  </si>
+  <si>
     <t>Substance.code.coding:FEST-Substance.version</t>
   </si>
   <si>
@@ -653,6 +706,12 @@
     <t>Coding.version</t>
   </si>
   <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>fhir:Coding.version rdfs:subPropertyOf dt:CDCoding.codeSystemVersion</t>
+  </si>
+  <si>
     <t>Substance.code.coding:FEST-Substance.code</t>
   </si>
   <si>
@@ -671,6 +730,12 @@
     <t>Coding.code</t>
   </si>
   <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>fhir:Coding.code rdfs:subPropertyOf dt:CDCoding.code</t>
+  </si>
+  <si>
     <t>Substance.code.coding:FEST-Substance.display</t>
   </si>
   <si>
@@ -687,6 +752,12 @@
   </si>
   <si>
     <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>fhir:Coding.display rdfs:subPropertyOf dt:CDCoding.displayName</t>
   </si>
   <si>
     <t>Substance.code.coding:FEST-Substance.userSelected</t>
@@ -714,6 +785,12 @@
     <t>Coding.userSelected</t>
   </si>
   <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>fhir:Coding.userSelected fhir:mapsTo dt:CDCoding.codingRationale. fhir:Coding.userSelected fhir:hasMap fhir:Coding.userSelected.map. fhir:Coding.userSelected.map a fhir:Map;   fhir:target dt:CDCoding.codingRationale. fhir:Coding.userSelected\#true a [     fhir:source "true";     fhir:target dt:CDCoding.codingRationale\#O   ]</t>
+  </si>
+  <si>
     <t>Substance.code.text</t>
   </si>
   <si>
@@ -732,6 +809,12 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>fhir:CodeableConcept.text rdfs:subPropertyOf dt:CD.originalText</t>
+  </si>
+  <si>
     <t>Substance.description</t>
   </si>
   <si>
@@ -739,6 +822,9 @@
   </si>
   <si>
     <t>A description of the substance - its appearance, handling requirements, and other usage notes.</t>
+  </si>
+  <si>
+    <t>.player.desc</t>
   </si>
   <si>
     <t>Substance.instance</t>
@@ -757,6 +843,9 @@
     <t>If this element is not present, then the substance resource describes a kind of substance</t>
   </si>
   <si>
+    <t>.player.determinerCode</t>
+  </si>
+  <si>
     <t>Substance.instance.id</t>
   </si>
   <si>
@@ -802,10 +891,13 @@
     <t>When the substance is no longer valid to use. For some substances, a single arbitrary date is used for expiry.</t>
   </si>
   <si>
+    <t>.expiryTime</t>
+  </si>
+  <si>
     <t>Substance.instance.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -815,11 +907,7 @@
     <t>The amount of the substance.</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>.player.quantity</t>
   </si>
   <si>
     <t>Substance.ingredient</t>
@@ -829,6 +917,9 @@
   </si>
   <si>
     <t>A substance can be composed of other substances.</t>
+  </si>
+  <si>
+    <t>.player.scopesRole[classCode=INGR]</t>
   </si>
   <si>
     <t>Substance.ingredient.id</t>
@@ -853,18 +944,14 @@
     <t>The amount of the ingredient in the substance - a concentration ratio.</t>
   </si>
   <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+    <t>.quantity</t>
   </si>
   <si>
     <t>Substance.ingredient.substance[x]</t>
   </si>
   <si>
     <t>CodeableConcept
-Reference(Substance)</t>
+Reference(Substance|4.0.1)</t>
   </si>
   <si>
     <t>A component of the substance</t>
@@ -874,6 +961,9 @@
   </si>
   <si>
     <t>Substance Ingredient codes.</t>
+  </si>
+  <si>
+    <t>.player</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1205,7 +1295,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.34765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="26.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1220,7 +1310,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="41.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="40.453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.5703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -1230,6 +1320,9 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="37" max="37" width="39.890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1341,6 +1434,15 @@
       <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1351,3973 +1453,4312 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>94</v>
+      <c r="AL14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>258</v>
+        <v>98</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>270</v>
+        <v>98</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/StructureDefinition-lmdi-substance.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-substance.xlsx
@@ -2011,7 +2011,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>

--- a/currentbuild/StructureDefinition-lmdi-substance.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-substance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="276">
   <si>
     <t>Property</t>
   </si>
@@ -232,15 +232,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Ontological RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -264,13 +255,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>fhir:Substance rdfs:subClassOf   rim:Entity, [      a owl:Restriction;     owl:onProperty  rim:Act.classCode;     owl:allValuesFrom  cs:EntityClass\#MAT   ].</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Substance.id</t>
@@ -314,6 +299,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -359,7 +348,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -388,9 +377,6 @@
     <t>DomainResource.text</t>
   </si>
   <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
     <t>Substance.contained</t>
   </si>
   <si>
@@ -414,9 +400,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Substance.extension</t>
   </si>
   <si>
@@ -437,6 +420,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -476,12 +469,6 @@
     <t>This identifier is associated with the kind of substance in contrast to the  Substance.instance.identifier which is associated with the package/container.</t>
   </si>
   <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
     <t>Substance.status</t>
   </si>
   <si>
@@ -491,16 +478,13 @@
     <t>A code to indicate if the substance is actively used.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/substance-status|4.0.1</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
   </si>
   <si>
     <t>Substance.category</t>
@@ -525,13 +509,7 @@
     <t>Category or classification of substance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-category|4.0.1</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
+    <t>http://hl7.org/fhir/ValueSet/substance-category</t>
   </si>
   <si>
     <t>Substance.code</t>
@@ -552,13 +530,7 @@
     <t>Substance codes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-code|4.0.1</t>
-  </si>
-  <si>
-    <t>fhir:Substance.code rdfs:subPropertyOf rim:Entity.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
+    <t>http://hl7.org/fhir/ValueSet/substance-code</t>
   </si>
   <si>
     <t>Substance.code.id</t>
@@ -577,23 +549,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Substance.code.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -628,12 +587,6 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>fhir:CodeableConcept.coding rdfs:subPropertyOf dt:CD.coding</t>
-  </si>
-  <si>
     <t>Substance.code.coding:FEST-Substance</t>
   </si>
   <si>
@@ -682,12 +635,6 @@
     <t>Coding.system</t>
   </si>
   <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>fhir:Coding.system rdfs:subPropertyOf dt:CDCoding.codeSystem</t>
-  </si>
-  <si>
     <t>Substance.code.coding:FEST-Substance.version</t>
   </si>
   <si>
@@ -706,12 +653,6 @@
     <t>Coding.version</t>
   </si>
   <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>fhir:Coding.version rdfs:subPropertyOf dt:CDCoding.codeSystemVersion</t>
-  </si>
-  <si>
     <t>Substance.code.coding:FEST-Substance.code</t>
   </si>
   <si>
@@ -730,12 +671,6 @@
     <t>Coding.code</t>
   </si>
   <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>fhir:Coding.code rdfs:subPropertyOf dt:CDCoding.code</t>
-  </si>
-  <si>
     <t>Substance.code.coding:FEST-Substance.display</t>
   </si>
   <si>
@@ -752,12 +687,6 @@
   </si>
   <si>
     <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>fhir:Coding.display rdfs:subPropertyOf dt:CDCoding.displayName</t>
   </si>
   <si>
     <t>Substance.code.coding:FEST-Substance.userSelected</t>
@@ -785,12 +714,6 @@
     <t>Coding.userSelected</t>
   </si>
   <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>fhir:Coding.userSelected fhir:mapsTo dt:CDCoding.codingRationale. fhir:Coding.userSelected fhir:hasMap fhir:Coding.userSelected.map. fhir:Coding.userSelected.map a fhir:Map;   fhir:target dt:CDCoding.codingRationale. fhir:Coding.userSelected\#true a [     fhir:source "true";     fhir:target dt:CDCoding.codingRationale\#O   ]</t>
-  </si>
-  <si>
     <t>Substance.code.text</t>
   </si>
   <si>
@@ -809,12 +732,6 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>fhir:CodeableConcept.text rdfs:subPropertyOf dt:CD.originalText</t>
-  </si>
-  <si>
     <t>Substance.description</t>
   </si>
   <si>
@@ -822,9 +739,6 @@
   </si>
   <si>
     <t>A description of the substance - its appearance, handling requirements, and other usage notes.</t>
-  </si>
-  <si>
-    <t>.player.desc</t>
   </si>
   <si>
     <t>Substance.instance</t>
@@ -843,9 +757,6 @@
     <t>If this element is not present, then the substance resource describes a kind of substance</t>
   </si>
   <si>
-    <t>.player.determinerCode</t>
-  </si>
-  <si>
     <t>Substance.instance.id</t>
   </si>
   <si>
@@ -891,13 +802,10 @@
     <t>When the substance is no longer valid to use. For some substances, a single arbitrary date is used for expiry.</t>
   </si>
   <si>
-    <t>.expiryTime</t>
-  </si>
-  <si>
     <t>Substance.instance.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -907,7 +815,11 @@
     <t>The amount of the substance.</t>
   </si>
   <si>
-    <t>.player.quantity</t>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>Substance.ingredient</t>
@@ -917,9 +829,6 @@
   </si>
   <si>
     <t>A substance can be composed of other substances.</t>
-  </si>
-  <si>
-    <t>.player.scopesRole[classCode=INGR]</t>
   </si>
   <si>
     <t>Substance.ingredient.id</t>
@@ -944,14 +853,18 @@
     <t>The amount of the ingredient in the substance - a concentration ratio.</t>
   </si>
   <si>
-    <t>.quantity</t>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
   </si>
   <si>
     <t>Substance.ingredient.substance[x]</t>
   </si>
   <si>
     <t>CodeableConcept
-Reference(Substance|4.0.1)</t>
+Reference(Substance)</t>
   </si>
   <si>
     <t>A component of the substance</t>
@@ -961,9 +874,6 @@
   </si>
   <si>
     <t>Substance Ingredient codes.</t>
-  </si>
-  <si>
-    <t>.player</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM40"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1295,7 +1205,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="26.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="22.34765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1310,7 +1220,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="41.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="42.5703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="40.453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -1320,9 +1230,6 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="39.890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1434,15 +1341,6 @@
       <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AK1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>75</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1453,4312 +1351,3973 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>156</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/StructureDefinition-lmdi-substance.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-substance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="231">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12</t>
+    <t>2025-05-01</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>En tilpasset profil av Substance for å representere virkestoff, basert på no-basis.</t>
+    <t>En tilpasset profil av Substance for å representere virkestoff.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Substance</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Substance</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -259,8 +259,7 @@
     <t>A homogeneous material with a definite composition</t>
   </si>
   <si>
-    <t>A homogeneous material with a definite composition.
-The profile is adapted to use FEST information for coding the substance.</t>
+    <t>A homogeneous material with a definite composition.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -561,263 +560,13 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
-    <t>Substance.code.id</t>
+    <t>Substance.description</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Substance.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Substance.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>fhir:CodeableConcept.coding rdfs:subPropertyOf dt:CD.coding</t>
-  </si>
-  <si>
-    <t>Substance.code.coding:FEST-Substance</t>
-  </si>
-  <si>
-    <t>FEST-Substance</t>
-  </si>
-  <si>
-    <t>Substance defined in FEST</t>
-  </si>
-  <si>
-    <t>A reference to a substance defined in FEST. Using the Substance-id in FEST as code and the Substance name as display. When communicating with other systems in Norway FEST Id shouuld be provided.</t>
-  </si>
-  <si>
-    <t>Substance.code.coding:FEST-Substance.id</t>
-  </si>
-  <si>
-    <t>Substance.code.coding.id</t>
-  </si>
-  <si>
-    <t>Substance.code.coding:FEST-Substance.extension</t>
-  </si>
-  <si>
-    <t>Substance.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Substance.code.coding:FEST-Substance.system</t>
-  </si>
-  <si>
-    <t>Substance.code.coding.system</t>
-  </si>
-  <si>
-    <t>FEST</t>
-  </si>
-  <si>
-    <t>FEST is the national DB</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://ehelse.no/fhir/CodeSystem/FEST</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>fhir:Coding.system rdfs:subPropertyOf dt:CDCoding.codeSystem</t>
-  </si>
-  <si>
-    <t>Substance.code.coding:FEST-Substance.version</t>
-  </si>
-  <si>
-    <t>Substance.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>fhir:Coding.version rdfs:subPropertyOf dt:CDCoding.codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Substance.code.coding:FEST-Substance.code</t>
-  </si>
-  <si>
-    <t>Substance.code.coding.code</t>
-  </si>
-  <si>
-    <t>Substance Id in FEST</t>
-  </si>
-  <si>
-    <t>The FEST Id is unique across versions of FEST.</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>fhir:Coding.code rdfs:subPropertyOf dt:CDCoding.code</t>
-  </si>
-  <si>
-    <t>Substance.code.coding:FEST-Substance.display</t>
-  </si>
-  <si>
-    <t>Substance.code.coding.display</t>
-  </si>
-  <si>
-    <t>Substance name from FEST</t>
-  </si>
-  <si>
-    <t>The name of the substance as defiend in FEST.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>fhir:Coding.display rdfs:subPropertyOf dt:CDCoding.displayName</t>
-  </si>
-  <si>
-    <t>Substance.code.coding:FEST-Substance.userSelected</t>
-  </si>
-  <si>
-    <t>Substance.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>fhir:Coding.userSelected fhir:mapsTo dt:CDCoding.codingRationale. fhir:Coding.userSelected fhir:hasMap fhir:Coding.userSelected.map. fhir:Coding.userSelected.map a fhir:Map;   fhir:target dt:CDCoding.codingRationale. fhir:Coding.userSelected\#true a [     fhir:source "true";     fhir:target dt:CDCoding.codingRationale\#O   ]</t>
-  </si>
-  <si>
-    <t>Substance.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>fhir:CodeableConcept.text rdfs:subPropertyOf dt:CD.originalText</t>
-  </si>
-  <si>
-    <t>Substance.description</t>
-  </si>
-  <si>
     <t>Textual description of the substance, comments</t>
   </si>
   <si>
@@ -849,7 +598,25 @@
     <t>Substance.instance.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Substance.instance.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Substance.instance.modifierExtension</t>
@@ -1276,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM40"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1285,9 +1052,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.06640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.4140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.4140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.53515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1313,15 +1080,15 @@
     <col min="26" max="26" width="42.5703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="39.890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="119.2265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2011,7 +1778,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2899,7 +2666,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -2908,7 +2675,7 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>177</v>
@@ -2968,7 +2735,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2980,10 +2747,10 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -2994,14 +2761,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3017,25 +2784,25 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="R16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3067,19 +2834,19 @@
         <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3091,10 +2858,10 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3105,10 +2872,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3119,7 +2886,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3128,23 +2895,19 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>193</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3180,35 +2943,37 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AC17" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3216,23 +2981,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3241,23 +3004,21 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3305,7 +3066,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3317,13 +3078,13 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3331,42 +3092,46 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3414,22 +3179,22 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3440,21 +3205,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3463,20 +3228,18 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3513,34 +3276,34 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3551,10 +3314,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3562,7 +3325,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
@@ -3577,26 +3340,22 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>76</v>
@@ -3638,7 +3397,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3653,10 +3412,10 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3664,10 +3423,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3690,17 +3449,15 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3749,7 +3506,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3764,10 +3521,10 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3775,10 +3532,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3786,10 +3543,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -3801,18 +3558,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3860,13 +3615,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -3875,10 +3630,10 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3886,10 +3641,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3897,7 +3652,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
@@ -3909,21 +3664,19 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>177</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>237</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3971,7 +3724,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3983,13 +3736,13 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -3997,21 +3750,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4020,23 +3773,21 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4084,25 +3835,25 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4110,45 +3861,45 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4197,25 +3948,25 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4223,10 +3974,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4237,7 +3988,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4249,13 +4000,13 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4306,7 +4057,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4321,7 +4072,7 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4332,10 +4083,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4343,10 +4094,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4358,22 +4109,20 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q28" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4393,13 +4142,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4417,13 +4166,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4432,1332 +4181,12 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O30" s="2"/>
-      <c r="P30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM40" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/currentbuild/StructureDefinition-lmdi-substance.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-substance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="307">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-01</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>En tilpasset profil av Substance for å representere virkestoff.</t>
+    <t>En tilpasset profil av Substance for å representere virkestoff, basert på no-basis.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Substance</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Substance</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -259,7 +259,8 @@
     <t>A homogeneous material with a definite composition</t>
   </si>
   <si>
-    <t>A homogeneous material with a definite composition.</t>
+    <t>A homogeneous material with a definite composition.
+The profile is adapted to use FEST information for coding the substance.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -560,13 +561,263 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
-    <t>Substance.description</t>
+    <t>Substance.code.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Substance.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Substance.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>fhir:CodeableConcept.coding rdfs:subPropertyOf dt:CD.coding</t>
+  </si>
+  <si>
+    <t>Substance.code.coding:FEST-Substance</t>
+  </si>
+  <si>
+    <t>FEST-Substance</t>
+  </si>
+  <si>
+    <t>Substance defined in FEST</t>
+  </si>
+  <si>
+    <t>A reference to a substance defined in FEST. Using the Substance-id in FEST as code and the Substance name as display. When communicating with other systems in Norway FEST Id shouuld be provided.</t>
+  </si>
+  <si>
+    <t>Substance.code.coding:FEST-Substance.id</t>
+  </si>
+  <si>
+    <t>Substance.code.coding.id</t>
+  </si>
+  <si>
+    <t>Substance.code.coding:FEST-Substance.extension</t>
+  </si>
+  <si>
+    <t>Substance.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Substance.code.coding:FEST-Substance.system</t>
+  </si>
+  <si>
+    <t>Substance.code.coding.system</t>
+  </si>
+  <si>
+    <t>FEST</t>
+  </si>
+  <si>
+    <t>FEST is the national DB</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://ehelse.no/fhir/CodeSystem/FEST</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>fhir:Coding.system rdfs:subPropertyOf dt:CDCoding.codeSystem</t>
+  </si>
+  <si>
+    <t>Substance.code.coding:FEST-Substance.version</t>
+  </si>
+  <si>
+    <t>Substance.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>fhir:Coding.version rdfs:subPropertyOf dt:CDCoding.codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Substance.code.coding:FEST-Substance.code</t>
+  </si>
+  <si>
+    <t>Substance.code.coding.code</t>
+  </si>
+  <si>
+    <t>Substance Id in FEST</t>
+  </si>
+  <si>
+    <t>The FEST Id is unique across versions of FEST.</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>fhir:Coding.code rdfs:subPropertyOf dt:CDCoding.code</t>
+  </si>
+  <si>
+    <t>Substance.code.coding:FEST-Substance.display</t>
+  </si>
+  <si>
+    <t>Substance.code.coding.display</t>
+  </si>
+  <si>
+    <t>Substance name from FEST</t>
+  </si>
+  <si>
+    <t>The name of the substance as defiend in FEST.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>fhir:Coding.display rdfs:subPropertyOf dt:CDCoding.displayName</t>
+  </si>
+  <si>
+    <t>Substance.code.coding:FEST-Substance.userSelected</t>
+  </si>
+  <si>
+    <t>Substance.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>fhir:Coding.userSelected fhir:mapsTo dt:CDCoding.codingRationale. fhir:Coding.userSelected fhir:hasMap fhir:Coding.userSelected.map. fhir:Coding.userSelected.map a fhir:Map;   fhir:target dt:CDCoding.codingRationale. fhir:Coding.userSelected\#true a [     fhir:source "true";     fhir:target dt:CDCoding.codingRationale\#O   ]</t>
+  </si>
+  <si>
+    <t>Substance.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>fhir:CodeableConcept.text rdfs:subPropertyOf dt:CD.originalText</t>
+  </si>
+  <si>
+    <t>Substance.description</t>
+  </si>
+  <si>
     <t>Textual description of the substance, comments</t>
   </si>
   <si>
@@ -598,25 +849,7 @@
     <t>Substance.instance.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Substance.instance.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Substance.instance.modifierExtension</t>
@@ -1043,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1052,9 +1285,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.4140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.06640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.4140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.53515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1080,15 +1313,15 @@
     <col min="26" max="26" width="42.5703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="119.2265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="39.890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1778,7 +2011,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2666,7 +2899,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -2675,7 +2908,7 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>177</v>
@@ -2735,7 +2968,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2747,10 +2980,10 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -2761,14 +2994,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2784,69 +3017,69 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q16" t="s" s="2">
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AC16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="R16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AD16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -2858,10 +3091,10 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -2872,10 +3105,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2886,7 +3119,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -2895,19 +3128,23 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -2943,37 +3180,35 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -2981,21 +3216,23 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3004,21 +3241,23 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3066,7 +3305,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3078,13 +3317,13 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3092,46 +3331,42 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3179,22 +3414,22 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3205,21 +3440,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3228,18 +3463,20 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3276,34 +3513,34 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3314,10 +3551,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3325,7 +3562,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
@@ -3340,22 +3577,26 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>76</v>
@@ -3397,7 +3638,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3412,10 +3653,10 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3423,10 +3664,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3449,15 +3690,17 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3506,7 +3749,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3521,10 +3764,10 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3532,10 +3775,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3543,10 +3786,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -3558,16 +3801,18 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3615,13 +3860,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -3630,10 +3875,10 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3641,10 +3886,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3652,7 +3897,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
@@ -3664,19 +3909,21 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>177</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3724,7 +3971,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3736,13 +3983,13 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -3750,21 +3997,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -3773,21 +4020,23 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -3835,25 +4084,25 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -3861,45 +4110,45 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -3948,25 +4197,25 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -3974,10 +4223,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3988,7 +4237,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4000,13 +4249,13 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4057,7 +4306,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4072,7 +4321,7 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4083,10 +4332,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4094,10 +4343,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4109,20 +4358,22 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="R28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4142,13 +4393,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4166,13 +4417,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4181,12 +4432,1332 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/currentbuild/StructureDefinition-lmdi-substance.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-substance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="307">
   <si>
     <t>Property</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: Ontological RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -255,7 +264,13 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>fhir:Substance rdfs:subClassOf   rim:Entity, [      a owl:Restriction;     owl:onProperty  rim:Act.classCode;     owl:allValuesFrom  cs:EntityClass\#MAT   ].</t>
   </si>
   <si>
     <t>Substance.id</t>
@@ -299,10 +314,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -348,7 +359,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -377,6 +388,9 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
     <t>Substance.contained</t>
   </si>
   <si>
@@ -400,6 +414,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Substance.extension</t>
   </si>
   <si>
@@ -420,6 +437,155 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Substance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Substance.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique identifier</t>
+  </si>
+  <si>
+    <t>Unique identifier for the substance.</t>
+  </si>
+  <si>
+    <t>This identifier is associated with the kind of substance in contrast to the  Substance.instance.identifier which is associated with the package/container.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Substance.status</t>
+  </si>
+  <si>
+    <t>active | inactive | entered-in-error</t>
+  </si>
+  <si>
+    <t>A code to indicate if the substance is actively used.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/substance-status|4.0.1</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Substance.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>What class/type of substance this is</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of substance.  This is used  for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Substance.code.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Category or classification of substance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/substance-category|4.0.1</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Substance.code</t>
+  </si>
+  <si>
+    <t>What substance this is</t>
+  </si>
+  <si>
+    <t>A code (or set of codes) that identify this substance.</t>
+  </si>
+  <si>
+    <t>This could be a reference to an externally defined code.  It could also be a locally assigned code (e.g. a formulary),  optionally with translations to the standard drug codes.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Substance codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/substance-code|4.0.1</t>
+  </si>
+  <si>
+    <t>fhir:Substance.code rdfs:subPropertyOf rim:Entity.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Substance.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Substance.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -430,131 +596,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Substance.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Substance.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Unique identifier</t>
-  </si>
-  <si>
-    <t>Unique identifier for the substance.</t>
-  </si>
-  <si>
-    <t>This identifier is associated with the kind of substance in contrast to the  Substance.instance.identifier which is associated with the package/container.</t>
-  </si>
-  <si>
-    <t>Substance.status</t>
-  </si>
-  <si>
-    <t>active | inactive | entered-in-error</t>
-  </si>
-  <si>
-    <t>A code to indicate if the substance is actively used.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Substance.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>What class/type of substance this is</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of substance.  This is used  for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Substance.code.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Category or classification of substance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-category</t>
-  </si>
-  <si>
-    <t>Substance.code</t>
-  </si>
-  <si>
-    <t>What substance this is</t>
-  </si>
-  <si>
-    <t>A code (or set of codes) that identify this substance.</t>
-  </si>
-  <si>
-    <t>This could be a reference to an externally defined code.  It could also be a locally assigned code (e.g. a formulary),  optionally with translations to the standard drug codes.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Substance codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-code</t>
-  </si>
-  <si>
-    <t>Substance.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Substance.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -587,6 +628,12 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>fhir:CodeableConcept.coding rdfs:subPropertyOf dt:CD.coding</t>
+  </si>
+  <si>
     <t>Substance.code.coding:FEST-Substance</t>
   </si>
   <si>
@@ -635,6 +682,12 @@
     <t>Coding.system</t>
   </si>
   <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>fhir:Coding.system rdfs:subPropertyOf dt:CDCoding.codeSystem</t>
+  </si>
+  <si>
     <t>Substance.code.coding:FEST-Substance.version</t>
   </si>
   <si>
@@ -653,6 +706,12 @@
     <t>Coding.version</t>
   </si>
   <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>fhir:Coding.version rdfs:subPropertyOf dt:CDCoding.codeSystemVersion</t>
+  </si>
+  <si>
     <t>Substance.code.coding:FEST-Substance.code</t>
   </si>
   <si>
@@ -671,6 +730,12 @@
     <t>Coding.code</t>
   </si>
   <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>fhir:Coding.code rdfs:subPropertyOf dt:CDCoding.code</t>
+  </si>
+  <si>
     <t>Substance.code.coding:FEST-Substance.display</t>
   </si>
   <si>
@@ -687,6 +752,12 @@
   </si>
   <si>
     <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>fhir:Coding.display rdfs:subPropertyOf dt:CDCoding.displayName</t>
   </si>
   <si>
     <t>Substance.code.coding:FEST-Substance.userSelected</t>
@@ -714,6 +785,12 @@
     <t>Coding.userSelected</t>
   </si>
   <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>fhir:Coding.userSelected fhir:mapsTo dt:CDCoding.codingRationale. fhir:Coding.userSelected fhir:hasMap fhir:Coding.userSelected.map. fhir:Coding.userSelected.map a fhir:Map;   fhir:target dt:CDCoding.codingRationale. fhir:Coding.userSelected\#true a [     fhir:source "true";     fhir:target dt:CDCoding.codingRationale\#O   ]</t>
+  </si>
+  <si>
     <t>Substance.code.text</t>
   </si>
   <si>
@@ -732,6 +809,12 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>fhir:CodeableConcept.text rdfs:subPropertyOf dt:CD.originalText</t>
+  </si>
+  <si>
     <t>Substance.description</t>
   </si>
   <si>
@@ -739,6 +822,9 @@
   </si>
   <si>
     <t>A description of the substance - its appearance, handling requirements, and other usage notes.</t>
+  </si>
+  <si>
+    <t>.player.desc</t>
   </si>
   <si>
     <t>Substance.instance</t>
@@ -757,6 +843,9 @@
     <t>If this element is not present, then the substance resource describes a kind of substance</t>
   </si>
   <si>
+    <t>.player.determinerCode</t>
+  </si>
+  <si>
     <t>Substance.instance.id</t>
   </si>
   <si>
@@ -802,10 +891,13 @@
     <t>When the substance is no longer valid to use. For some substances, a single arbitrary date is used for expiry.</t>
   </si>
   <si>
+    <t>.expiryTime</t>
+  </si>
+  <si>
     <t>Substance.instance.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -815,11 +907,7 @@
     <t>The amount of the substance.</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>.player.quantity</t>
   </si>
   <si>
     <t>Substance.ingredient</t>
@@ -829,6 +917,9 @@
   </si>
   <si>
     <t>A substance can be composed of other substances.</t>
+  </si>
+  <si>
+    <t>.player.scopesRole[classCode=INGR]</t>
   </si>
   <si>
     <t>Substance.ingredient.id</t>
@@ -853,18 +944,14 @@
     <t>The amount of the ingredient in the substance - a concentration ratio.</t>
   </si>
   <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+    <t>.quantity</t>
   </si>
   <si>
     <t>Substance.ingredient.substance[x]</t>
   </si>
   <si>
     <t>CodeableConcept
-Reference(Substance)</t>
+Reference(Substance|4.0.1)</t>
   </si>
   <si>
     <t>A component of the substance</t>
@@ -874,6 +961,9 @@
   </si>
   <si>
     <t>Substance Ingredient codes.</t>
+  </si>
+  <si>
+    <t>.player</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1205,7 +1295,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.34765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="26.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1220,7 +1310,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="41.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="40.453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.5703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -1230,6 +1320,9 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="37" max="37" width="39.890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1341,6 +1434,15 @@
       <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1351,3973 +1453,4312 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>94</v>
+      <c r="AL14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>258</v>
+        <v>98</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>270</v>
+        <v>98</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
